--- a/2024/shuffle-architecute/Teste10/content/results/metrics_2_4.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_2_4.xlsx
@@ -488,926 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_0</t>
+          <t>model_2_4_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9777120968079619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8169278759395826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8860810560427032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9210913998989052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9207103104538036</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09353756159543991</v>
       </c>
       <c r="H2" t="n">
-        <v>1.670795202255249</v>
+        <v>1.224204063415527</v>
       </c>
       <c r="I2" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.323138415813446</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1456539481878281</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.234396293759346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_22</t>
+          <t>model_2_4_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9780898945061882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8169059514669399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999999999999284</v>
+        <v>0.897866454935582</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9230674946526827</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9269814841236954</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09195201843976974</v>
       </c>
       <c r="H3" t="n">
-        <v>1.670795202255249</v>
+        <v>1.224350690841675</v>
       </c>
       <c r="I3" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.2897083759307861</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1420063674449921</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.2158574312925339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_21</t>
+          <t>model_2_4_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9772166474141898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8168585343716919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999999999999284</v>
+        <v>0.874868517896956</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9193595312278907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9147902346876482</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09561686217784882</v>
       </c>
       <c r="H4" t="n">
-        <v>1.670795202255249</v>
+        <v>1.22466778755188</v>
       </c>
       <c r="I4" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.3549435436725616</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1488507390022278</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.2518972158432007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_20</t>
+          <t>model_2_4_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9782987315540711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.816759438055118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9101410527799076</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9253440799973905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9335811443537972</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.0910755842924118</v>
       </c>
       <c r="H5" t="n">
-        <v>1.670795202255249</v>
+        <v>1.225330471992493</v>
       </c>
       <c r="I5" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.2548907101154327</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1378041207790375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.1963475197553635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_19</t>
+          <t>model_2_4_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9766436615538795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8167239931552835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8642813840863057</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9178300034564846</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.90923336366664</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09802155196666718</v>
       </c>
       <c r="H6" t="n">
-        <v>1.670795202255249</v>
+        <v>1.225567579269409</v>
       </c>
       <c r="I6" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.3849745988845825</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1516740173101425</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.2683244645595551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_18</t>
+          <t>model_2_4_12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9760242359977391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8165445360240685</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8543475293721691</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9164709726256104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9040432496326631</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1006211563944817</v>
       </c>
       <c r="H7" t="n">
-        <v>1.670795202255249</v>
+        <v>1.226767539978027</v>
       </c>
       <c r="I7" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.4131526052951813</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1541825830936432</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.2836674749851227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_17</t>
+          <t>model_2_4_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9782738501953814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8164456514652766</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9227828095501238</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.928000051075866</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9404754243309847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09117999672889709</v>
       </c>
       <c r="H8" t="n">
-        <v>1.670795202255249</v>
+        <v>1.227428913116455</v>
       </c>
       <c r="I8" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.2190315425395966</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1329015642404556</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.1759666204452515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_16</t>
+          <t>model_2_4_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.975382212714508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.816335722864778</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8450769442315601</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9152581732557522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8992168472461459</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1033155918121338</v>
       </c>
       <c r="H9" t="n">
-        <v>1.670795202255249</v>
+        <v>1.228163838386536</v>
       </c>
       <c r="I9" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.4394492506980896</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1564212441444397</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.297935277223587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_15</t>
+          <t>model_2_4_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9747355734820284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8161095184075733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999999999999284</v>
+        <v>0.836464568242672</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9141720934475751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8947458572600354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1060293838381767</v>
       </c>
       <c r="H10" t="n">
-        <v>1.670795202255249</v>
+        <v>1.229676485061646</v>
       </c>
       <c r="I10" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.4638787806034088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1584259867668152</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.311152458190918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_14</t>
+          <t>model_2_4_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9779337208911399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8159100760026337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9356202871552884</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9311464313341731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9476167249305778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09260745346546173</v>
       </c>
       <c r="H11" t="n">
-        <v>1.670795202255249</v>
+        <v>1.23101019859314</v>
       </c>
       <c r="I11" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.1826172024011612</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1270938068628311</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.1548555046319962</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_13</t>
+          <t>model_2_4_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9740976046792199</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8158749738139901</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8284946583560762</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9131970509762904</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8906178171770291</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1087068021297455</v>
       </c>
       <c r="H12" t="n">
-        <v>1.670795202255249</v>
+        <v>1.231244921684265</v>
       </c>
       <c r="I12" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.4864859580993652</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1602257788181305</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3233557641506195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_23</t>
+          <t>model_2_4_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9734779255855696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8156388240451535</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8211443147387192</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9123198087655268</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8868174777541952</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1113074719905853</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670795202255249</v>
+        <v>1.232823967933655</v>
       </c>
       <c r="I13" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.5073357224464417</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1618450433015823</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3345903158187866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_12</t>
+          <t>model_2_4_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9728832260415634</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8154060490137583</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8143846727697196</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9115295454185919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8833276905951909</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1138032898306847</v>
       </c>
       <c r="H14" t="n">
-        <v>1.670795202255249</v>
+        <v>1.234380602836609</v>
       </c>
       <c r="I14" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.5265098214149475</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1633037626743317</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3449068367481232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_10</t>
+          <t>model_2_4_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9723179726736503</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8151801424747995</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8081841596459883</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.910816942247333</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8801304021751478</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1161755472421646</v>
       </c>
       <c r="H15" t="n">
-        <v>1.670795202255249</v>
+        <v>1.235891222953796</v>
       </c>
       <c r="I15" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.5440980195999146</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.164619117975235</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3543586730957031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_9</t>
+          <t>model_2_4_4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9771761306532277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8150816356380874</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999999999999284</v>
+        <v>0.948417791607175</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9349421218827672</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.954941545919809</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.09578689932823181</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670795202255249</v>
+        <v>1.236549973487854</v>
       </c>
       <c r="I16" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.146316260099411</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1200875043869019</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.1332018673419952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_8</t>
+          <t>model_2_4_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9717848818297575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8149635789478407</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999999999999284</v>
+        <v>0.8025086707282472</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9101739058852258</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8772067861767131</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1184128075838089</v>
       </c>
       <c r="H17" t="n">
-        <v>1.670795202255249</v>
+        <v>1.237339377403259</v>
       </c>
       <c r="I17" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.5601969361305237</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1658060848712921</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3630014657974243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_7</t>
+          <t>model_2_4_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9712853037096134</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8147579824238</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999999999999284</v>
+        <v>0.7973239320568181</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9095932460666719</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8745380276657494</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1205094307661057</v>
       </c>
       <c r="H18" t="n">
-        <v>1.670795202255249</v>
+        <v>1.238714218139648</v>
       </c>
       <c r="I18" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.5749037265777588</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1668778955936432</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3708908557891846</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_6</t>
+          <t>model_2_4_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9708196537955986</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8145642568899801</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999999999999284</v>
+        <v>0.792595493057075</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9090687123683178</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8721057036028761</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1224636659026146</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670795202255249</v>
+        <v>1.240009784698486</v>
       </c>
       <c r="I19" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.5883163213729858</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1678460985422134</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3780812621116638</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_5</t>
+          <t>model_2_4_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9703875630223773</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8143828950666894</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999999999999284</v>
+        <v>0.7882894626653563</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9085951499743546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8698919808239579</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1242770701646805</v>
       </c>
       <c r="H20" t="n">
-        <v>1.670795202255249</v>
+        <v>1.241222500801086</v>
       </c>
       <c r="I20" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.6005306243896484</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1687202304601669</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3846254944801331</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_4</t>
+          <t>model_2_4_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9699881416316183</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8142140192523496</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999999999999284</v>
+        <v>0.7843730998875732</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9081674962691493</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8678795550550777</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.12595334649086</v>
       </c>
       <c r="H21" t="n">
-        <v>1.670795202255249</v>
+        <v>1.242351770401001</v>
       </c>
       <c r="I21" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.6116396188735962</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.169509619474411</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3905746340751648</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_3</t>
+          <t>model_2_4_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9696201101631394</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8140574258096599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999999999999284</v>
+        <v>0.7808153788251343</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9077811394504188</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.8660520936384626</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1274978965520859</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670795202255249</v>
+        <v>1.243398904800415</v>
       </c>
       <c r="I22" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.6217313408851624</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1702227741479874</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.3959770202636719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_2</t>
+          <t>model_2_4_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9758712013386053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8138647847090125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9608483927772917</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9396039452748456</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9623607230753546</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1012633964419365</v>
       </c>
       <c r="H23" t="n">
-        <v>1.670795202255249</v>
+        <v>1.244687080383301</v>
       </c>
       <c r="I23" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.1110560595989227</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1114824414253235</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.1112692803144455</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_1</t>
+          <t>model_2_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9738479201955554</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8121219614473287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9724444624512464</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9453800661238794</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9697274130786738</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1097546741366386</v>
       </c>
       <c r="H24" t="n">
-        <v>1.670795202255249</v>
+        <v>1.256341338157654</v>
       </c>
       <c r="I24" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.07816306501626968</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.1008205562829971</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.08949185907840729</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_11</t>
+          <t>model_2_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9708606999821942</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.8096351948077396</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9825214274540451</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9523141368858677</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9767268378364992</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1222914010286331</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670795202255249</v>
+        <v>1.27297043800354</v>
       </c>
       <c r="I25" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.04957909882068634</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.08802125602960587</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.06880015134811401</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_24</t>
+          <t>model_2_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9643522367788291</v>
+        <v>0.9665205622404923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7501429450831567</v>
+        <v>0.806047742382009</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999999999999284</v>
+        <v>0.9901658101408292</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9836619573351721</v>
+        <v>0.9594290971983896</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9886128307490923</v>
+        <v>0.9826156351114529</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1496060341596603</v>
+        <v>0.1405060291290283</v>
       </c>
       <c r="H26" t="n">
-        <v>1.670795202255249</v>
+        <v>1.296959638595581</v>
       </c>
       <c r="I26" t="n">
-        <v>3.324007735727719e-13</v>
+        <v>0.02789531461894512</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03787653148174286</v>
+        <v>0.07488806545734406</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01893831044435501</v>
+        <v>0.05139168351888657</v>
       </c>
     </row>
   </sheetData>
